--- a/data/certificates.xlsx
+++ b/data/certificates.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Successful" sheetId="1" r:id="rId1"/>
     <sheet name="Declined" sheetId="2" r:id="rId2"/>
     <sheet name="Customer Successful" sheetId="4" r:id="rId3"/>
     <sheet name="Customer Declined" sheetId="5" r:id="rId4"/>
-    <sheet name="Customer Successful--" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="345">
   <si>
     <t>id_testdata</t>
   </si>
@@ -176,15 +175,6 @@
     <t>87506</t>
   </si>
   <si>
-    <t>07039</t>
-  </si>
-  <si>
-    <t>29020</t>
-  </si>
-  <si>
-    <t>82941</t>
-  </si>
-  <si>
     <t>4000056655665556</t>
   </si>
   <si>
@@ -263,60 +253,24 @@
     <t>30569309025904</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t>3566002020360505</t>
   </si>
   <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t>Dawkins</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Harpring</t>
-  </si>
-  <si>
     <t>4000001240000000</t>
   </si>
   <si>
     <t>38520000023237</t>
   </si>
   <si>
-    <t>O'Malley</t>
-  </si>
-  <si>
-    <t>D'Arcy</t>
-  </si>
-  <si>
     <t>6200000000000005</t>
   </si>
   <si>
     <t>P0P 0B4</t>
   </si>
   <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Cunningham</t>
-  </si>
-  <si>
     <t>4000004840000008</t>
   </si>
   <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>McMillen</t>
-  </si>
-  <si>
     <t>4000008260000000</t>
   </si>
   <si>
@@ -404,120 +358,12 @@
     <t>5</t>
   </si>
   <si>
-    <t>godo-473_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-474_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-475_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-476_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-477_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-478_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-american_express_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-479_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-discover_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-480_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-diners_club_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-481_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-unionpay_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-482_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-483_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>godo-484_cus@mailinator.com</t>
-  </si>
-  <si>
-    <t>GoDo-473-c</t>
-  </si>
-  <si>
-    <t>GoDo-474-c</t>
-  </si>
-  <si>
-    <t>GoDo-475-c</t>
-  </si>
-  <si>
-    <t>GoDo-476-c</t>
-  </si>
-  <si>
-    <t>GoDo-477-c</t>
-  </si>
-  <si>
-    <t>GoDo-478-c</t>
-  </si>
-  <si>
-    <t>GoDo-American Express-c</t>
-  </si>
-  <si>
-    <t>GoDo-479-c</t>
-  </si>
-  <si>
-    <t>GoDo-Discover-c</t>
-  </si>
-  <si>
-    <t>GoDo-480-c</t>
-  </si>
-  <si>
-    <t>GoDo-Diners Club-c</t>
-  </si>
-  <si>
-    <t>GoDo-481-c</t>
-  </si>
-  <si>
-    <t>GoDo-UnionPay-c</t>
-  </si>
-  <si>
-    <t>GoDo-482-c</t>
-  </si>
-  <si>
-    <t>GoDo-483-c</t>
-  </si>
-  <si>
-    <t>GoDo-484-c</t>
-  </si>
-  <si>
-    <t>https://dev.godo.io/customer_facing.aspx?Activity=b5382243-b660-451f-a2e0-c9a99dac7045</t>
-  </si>
-  <si>
     <t>AlertTest</t>
   </si>
   <si>
-    <t>Senior</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -527,33 +373,9 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>2.50</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>22.20</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>05:00 AM</t>
-  </si>
-  <si>
-    <t>55.50</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>https://dev.godo.io/customer_facing.aspx?Activity=b7308051-c34a-469e-a283-db155f09a879</t>
   </si>
   <si>
@@ -966,13 +788,277 @@
   </si>
   <si>
     <t>Isaac</t>
+  </si>
+  <si>
+    <t>GoDo-743</t>
+  </si>
+  <si>
+    <t>GoDo-744</t>
+  </si>
+  <si>
+    <t>GoDo-745</t>
+  </si>
+  <si>
+    <t>GoDo-746</t>
+  </si>
+  <si>
+    <t>GoDo-747</t>
+  </si>
+  <si>
+    <t>GoDo-748</t>
+  </si>
+  <si>
+    <t>GoDo-749</t>
+  </si>
+  <si>
+    <t>GoDo-750</t>
+  </si>
+  <si>
+    <t>GoDo-751</t>
+  </si>
+  <si>
+    <t>GoDo-752</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Thornton</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Joann</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Garry</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>Darla</t>
+  </si>
+  <si>
+    <t>Townsend</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Byrd</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>godo-743@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-744@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-745@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-746@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-747@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-748@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-749@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-750@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-751@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-752@mailinator.com</t>
+  </si>
+  <si>
+    <t>Johnathan</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Elvira</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Rufus</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Wilkerson</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>Leland</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Massey</t>
+  </si>
+  <si>
+    <t>Lynne</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>godo-473-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-474-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-475-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-476-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-477-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-478-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-am_ex-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-479-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-discover-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-480-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-diners_club-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-481-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-unionpay-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-482-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-483-ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-484-ac@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,6 +1098,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1040,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1049,6 +1143,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1351,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5:M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,32 +1472,31 @@
     <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -1414,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -1441,138 +1535,135 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>220</v>
+        <v>161</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>32</v>
@@ -1581,36 +1672,36 @@
         <v>33</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>32</v>
@@ -1619,48 +1710,48 @@
         <v>33</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>220</v>
+        <v>161</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>32</v>
@@ -1669,56 +1760,56 @@
         <v>33</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>252</v>
+        <v>194</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>41</v>
@@ -1733,11 +1824,658 @@
         <v>33</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" t="s">
+        <v>341</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,407 +2485,543 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="18.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="18" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>196</v>
+      <c r="B1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="R11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>124</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>126</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F12"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -2211,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
@@ -2223,10 +3097,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -2253,7 +3127,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>22</v>
@@ -2270,75 +3144,75 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>32</v>
@@ -2347,54 +3221,54 @@
         <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>38</v>
@@ -2408,31 +3282,31 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>37</v>
@@ -2449,34 +3323,34 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>32</v>
@@ -2485,13 +3359,13 @@
         <v>33</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>38</v>
@@ -2505,34 +3379,34 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>32</v>
@@ -2541,13 +3415,13 @@
         <v>33</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>38</v>
@@ -2558,34 +3432,34 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>32</v>
@@ -2594,13 +3468,13 @@
         <v>33</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>38</v>
@@ -2614,34 +3488,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>32</v>
@@ -2650,19 +3524,19 @@
         <v>33</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>48</v>
@@ -2670,40 +3544,40 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>48</v>
@@ -2711,28 +3585,28 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
@@ -2747,13 +3621,13 @@
         <v>33</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>38</v>
@@ -2767,34 +3641,34 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" t="s">
-        <v>301</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>38</v>
@@ -2808,34 +3682,34 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>38</v>
@@ -2846,34 +3720,34 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>32</v>
@@ -2882,13 +3756,13 @@
         <v>33</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>38</v>
@@ -2899,34 +3773,34 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>32</v>
@@ -2935,13 +3809,13 @@
         <v>33</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>38</v>
@@ -2955,34 +3829,34 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>32</v>
@@ -2991,13 +3865,13 @@
         <v>33</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>38</v>
@@ -3008,34 +3882,34 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>32</v>
@@ -3044,13 +3918,13 @@
         <v>33</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>38</v>
@@ -3059,39 +3933,39 @@
         <v>39</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="F18" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>38</v>
@@ -3102,28 +3976,28 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>41</v>
@@ -3138,13 +4012,13 @@
         <v>33</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>38</v>
@@ -3153,7 +4027,7 @@
         <v>39</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +4042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +4157,7 @@
         <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>23</v>
@@ -3312,19 +4186,19 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L2" s="1">
         <v>2018</v>
@@ -3333,10 +4207,10 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>42</v>
@@ -3348,7 +4222,7 @@
         <v>15044466025</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="T2" s="1">
         <v>35801</v>
@@ -3357,10 +4231,10 @@
         <v>36</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>38</v>
@@ -3372,36 +4246,36 @@
         <v>35801</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L3" s="1">
         <v>2018</v>
@@ -3410,10 +4284,10 @@
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>34</v>
@@ -3425,7 +4299,7 @@
         <v>15044466025</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>44</v>
@@ -3434,10 +4308,10 @@
         <v>36</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>38</v>
@@ -3449,36 +4323,36 @@
         <v>44</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L4" s="1">
         <v>2018</v>
@@ -3487,22 +4361,22 @@
         <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R4" s="1">
         <v>15044466025</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>45</v>
@@ -3511,10 +4385,10 @@
         <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>38</v>
@@ -3526,36 +4400,36 @@
         <v>45</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L5" s="1">
         <v>2018</v>
@@ -3564,22 +4438,22 @@
         <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R5" s="1">
         <v>15044466025</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>46</v>
@@ -3588,10 +4462,10 @@
         <v>36</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>38</v>
@@ -3603,36 +4477,36 @@
         <v>46</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L6" s="1">
         <v>2018</v>
@@ -3641,22 +4515,22 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R6" s="1">
         <v>15044466025</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>47</v>
@@ -3665,10 +4539,10 @@
         <v>36</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>38</v>
@@ -3680,36 +4554,36 @@
         <v>47</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L7" s="1">
         <v>2018</v>
@@ -3718,22 +4592,22 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R7" s="1">
         <v>15044466025</v>
       </c>
       <c r="S7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>48</v>
@@ -3742,10 +4616,10 @@
         <v>36</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>38</v>
@@ -3757,36 +4631,36 @@
         <v>48</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L8" s="1">
         <v>2018</v>
@@ -3795,22 +4669,22 @@
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R8" s="1">
         <v>15044466025</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>48</v>
@@ -3822,7 +4696,7 @@
         <v>37</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>38</v>
@@ -3834,36 +4708,36 @@
         <v>48</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L9" s="1">
         <v>2018</v>
@@ -3872,22 +4746,22 @@
         <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R9" s="1">
         <v>15044466025</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>49</v>
@@ -3899,7 +4773,7 @@
         <v>37</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>38</v>
@@ -3911,36 +4785,36 @@
         <v>48</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L10" s="1">
         <v>2018</v>
@@ -3949,22 +4823,22 @@
         <v>5</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R10" s="1">
         <v>15044466025</v>
       </c>
       <c r="S10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>49</v>
@@ -3976,7 +4850,7 @@
         <v>37</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>38</v>
@@ -3988,36 +4862,36 @@
         <v>35801</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1">
         <v>2018</v>
@@ -4026,22 +4900,22 @@
         <v>5</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R11" s="1">
         <v>15044466025</v>
       </c>
       <c r="S11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>50</v>
@@ -4050,10 +4924,10 @@
         <v>36</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>38</v>
@@ -4065,19 +4939,19 @@
         <v>44</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -4097,1492 +4971,6 @@
     </row>
     <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M2" s="1">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M3" s="1">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S3" t="s">
-        <v>134</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M4" s="1">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>35801</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>35801</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M6" s="1">
-        <v>5</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S6" t="s">
-        <v>137</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S7" t="s">
-        <v>138</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S8" t="s">
-        <v>139</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M9" s="1">
-        <v>5</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M10" s="1">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M11" s="1">
-        <v>5</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S11" t="s">
-        <v>142</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M12" s="1">
-        <v>5</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S12" t="s">
-        <v>143</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S13" t="s">
-        <v>128</v>
-      </c>
-      <c r="T13" s="1">
-        <v>35801</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>35801</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M14" s="1">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S14" t="s">
-        <v>129</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R16" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S16" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M17" s="1">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S17" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S23"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S25"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S26"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S27"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S28"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S29"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S30"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S31"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S32"/>
-    </row>
-    <row r="33" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S33"/>
-    </row>
-    <row r="34" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S34"/>
-    </row>
-    <row r="35" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S35"/>
-    </row>
-    <row r="36" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S36"/>
-    </row>
-    <row r="38" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S38"/>
-    </row>
-    <row r="39" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S39"/>
-    </row>
-    <row r="40" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S40"/>
-    </row>
-    <row r="41" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S41"/>
-    </row>
-    <row r="42" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S42"/>
-      <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S43"/>
-    </row>
-    <row r="44" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S44"/>
-    </row>
-    <row r="45" spans="19:25" x14ac:dyDescent="0.25">
-      <c r="S45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
